--- a/TestExcel/output009.xlsx
+++ b/TestExcel/output009.xlsx
@@ -1,104 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Repo\albertpython\TestExcel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70950864-DDB9-4059-B663-C330F653083D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr codeName="ThisWorkbook"/>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>Field</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Agriculture</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Business and Management</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Education</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Engineering</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fine and Applied Arts</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Health Professions</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Humanities</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mathematics</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Other Subject Areas</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Physical and Life Sciences</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Social Sciences</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -123,21 +43,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
@@ -184,7 +96,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -217,26 +129,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -269,23 +164,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -320,20 +198,16 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -455,163 +329,225 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="29.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.25" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>2020</v>
-      </c>
-      <c r="C1">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Field</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Firstyear</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Lastyear</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>Agriculture</v>
+      </c>
+      <c r="B2" t="str">
         <v>12138</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="str">
         <v>12534</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Business and Management</v>
+      </c>
+      <c r="B3" t="str">
         <v>200312</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="str">
         <v>200300</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Education</v>
+      </c>
+      <c r="B4" t="str">
         <v>19483</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="str">
         <v>25634</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Engineering</v>
+      </c>
+      <c r="B5" t="str">
         <v>216932</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="str">
         <v>210253</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Fine and Applied Arts</v>
+      </c>
+      <c r="B6" t="str">
         <v>59736</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="str">
         <v>54111</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Health Professions</v>
+      </c>
+      <c r="B7" t="str">
         <v>33947</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="str">
         <v>5353</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Humanities</v>
+      </c>
+      <c r="B8" t="str">
         <v>17664</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="str">
         <v>57573</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Mathematics</v>
+      </c>
+      <c r="B9" t="str">
         <v>141651</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="str">
         <v>452</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Other Subject Areas</v>
+      </c>
+      <c r="B10" t="str">
         <v>185107</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="str">
         <v>5253</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Physical and Life Sciences</v>
+      </c>
+      <c r="B11" t="str">
         <v>75385</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="str">
         <v>1245</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Social Sciences</v>
+      </c>
+      <c r="B12" t="str">
         <v>81304</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="str">
         <v>35345</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Agriculture</v>
+      </c>
+      <c r="B13" t="str">
+        <v>12138</v>
+      </c>
+      <c r="C13" t="str">
+        <v>12534</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Business and Management</v>
+      </c>
+      <c r="B14" t="str">
+        <v>200312</v>
+      </c>
+      <c r="C14" t="str">
+        <v>200300</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Education</v>
+      </c>
+      <c r="B15" t="str">
+        <v>19483</v>
+      </c>
+      <c r="C15" t="str">
+        <v>25634</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:C15"/>
+  </ignoredErrors>
 </worksheet>
 </file>